--- a/Storage/标定/新电流-1Ω.xlsx
+++ b/Storage/标定/新电流-1Ω.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\IPMC-Platform\Storage\标定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6DA09863-755C-441A-B31B-58766E308263}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8CA1AA3D-1811-4009-B44D-F336545787E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1166,23 +1166,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:rPr>
+              <a:rPr lang="zh-CN"/>
               <a:t>电流标定结果</a:t>
             </a:r>
           </a:p>
@@ -1201,15 +1195,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1264,8 +1255,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.42096981627296587"/>
-                  <c:y val="-2.5293817439486731E-2"/>
+                  <c:x val="-0.42075459317585301"/>
+                  <c:y val="-8.2504009915427237E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1285,10 +1276,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1376,55 +1364,30 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>万用表显示电流</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
-                  <a:t>/</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/ mA (20~200mA</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
-                  <a:t> mA (20~200mA</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>量程</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1443,13 +1406,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1478,13 +1438,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1511,41 +1468,22 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
-                  <a:t>电压变化 </a:t>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>电压变化</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
-                  <a:t>/</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/ V</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
-                  <a:t> V</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1564,13 +1502,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1599,13 +1534,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1618,7 +1550,9 @@
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1637,9 +1571,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="bg1"/>
@@ -1653,7 +1585,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
